--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Edema macular diabético.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Edema macular diabético.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.61408048671748</v>
+        <v>23.61408048671749</v>
       </c>
       <c r="B4" t="n">
         <v>18.8801169995622</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.351243436137434</v>
+        <v>8.351243436137432</v>
       </c>
       <c r="B8" t="n">
-        <v>6.715698028271396</v>
+        <v>6.715698028271399</v>
       </c>
       <c r="C8" t="n">
         <v>10.7715202227143</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.693394974681526</v>
+        <v>9.693394974681523</v>
       </c>
       <c r="B10" t="n">
-        <v>7.874426629299665</v>
+        <v>7.874426629299668</v>
       </c>
       <c r="C10" t="n">
         <v>12.39861141566194</v>
@@ -565,7 +565,7 @@
         <v>25.31253735893833</v>
       </c>
       <c r="B12" t="n">
-        <v>20.26482504559886</v>
+        <v>20.26482504559885</v>
       </c>
       <c r="C12" t="n">
         <v>31.05898898267733</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15.46592806017408</v>
+        <v>15.46592806017407</v>
       </c>
       <c r="B13" t="n">
-        <v>12.46612878341161</v>
+        <v>12.46612878341162</v>
       </c>
       <c r="C13" t="n">
         <v>19.53204001800093</v>
@@ -653,7 +653,7 @@
         <v>27.37312835585634</v>
       </c>
       <c r="B20" t="n">
-        <v>21.83094186360195</v>
+        <v>21.83094186360194</v>
       </c>
       <c r="C20" t="n">
         <v>33.49553800846537</v>
@@ -675,7 +675,7 @@
         <v>10.93070900420637</v>
       </c>
       <c r="B22" t="n">
-        <v>8.882955074669283</v>
+        <v>8.882955074669287</v>
       </c>
       <c r="C22" t="n">
         <v>13.96423794117892</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>31.65156661322123</v>
+        <v>31.65156661322124</v>
       </c>
       <c r="B23" t="n">
-        <v>25.1884757330961</v>
+        <v>25.18847573309609</v>
       </c>
       <c r="C23" t="n">
         <v>38.46083306118742</v>
@@ -697,7 +697,7 @@
         <v>25.16059406935477</v>
       </c>
       <c r="B24" t="n">
-        <v>20.18938536200933</v>
+        <v>20.18938536200932</v>
       </c>
       <c r="C24" t="n">
         <v>30.51794662600803</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28.24882407775913</v>
+        <v>28.24882407775914</v>
       </c>
       <c r="B26" t="n">
         <v>22.46363031406474</v>
@@ -785,7 +785,7 @@
         <v>11.96366098963803</v>
       </c>
       <c r="B32" t="n">
-        <v>9.740943758620048</v>
+        <v>9.740943758620052</v>
       </c>
       <c r="C32" t="n">
         <v>14.95808977631127</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>26.29307058986036</v>
+        <v>26.29307058986037</v>
       </c>
       <c r="B35" t="n">
-        <v>21.0477136517203</v>
+        <v>21.04771365172029</v>
       </c>
       <c r="C35" t="n">
         <v>32.02210848409436</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25.98387103674793</v>
+        <v>25.98387103674794</v>
       </c>
       <c r="B40" t="n">
         <v>20.74697373464279</v>
@@ -906,7 +906,7 @@
         <v>23.91796706588462</v>
       </c>
       <c r="B43" t="n">
-        <v>19.03099636674127</v>
+        <v>19.03099636674126</v>
       </c>
       <c r="C43" t="n">
         <v>29.40116545601438</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11.95834801569273</v>
+        <v>11.95834801569272</v>
       </c>
       <c r="B47" t="n">
-        <v>9.59108320872161</v>
+        <v>9.591083208721614</v>
       </c>
       <c r="C47" t="n">
         <v>15.40693513183461</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25.20769984991908</v>
+        <v>25.20769984991909</v>
       </c>
       <c r="B48" t="n">
         <v>20.11462488994021</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25.83192774716436</v>
+        <v>25.83192774716437</v>
       </c>
       <c r="B51" t="n">
         <v>20.67153405105326</v>
@@ -1005,7 +1005,7 @@
         <v>12.89177546605044</v>
       </c>
       <c r="B52" t="n">
-        <v>10.44873228691216</v>
+        <v>10.44873228691217</v>
       </c>
       <c r="C52" t="n">
         <v>15.89047694401297</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26.28775761591506</v>
+        <v>26.28775761591507</v>
       </c>
       <c r="B53" t="n">
         <v>20.89785310182186</v>
@@ -1027,7 +1027,7 @@
         <v>30.57150884722526</v>
       </c>
       <c r="B54" t="n">
-        <v>24.40524752121445</v>
+        <v>24.40524752121444</v>
       </c>
       <c r="C54" t="n">
         <v>36.98740353681641</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.91124223512841</v>
+        <v>11.9112422351284</v>
       </c>
       <c r="B57" t="n">
-        <v>9.665843680790724</v>
+        <v>9.665843680790726</v>
       </c>
       <c r="C57" t="n">
         <v>14.92735744259595</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31.8088228767501</v>
+        <v>31.80882287675011</v>
       </c>
       <c r="B60" t="n">
-        <v>25.41377596658407</v>
+        <v>25.41377596658406</v>
       </c>
       <c r="C60" t="n">
         <v>38.55303006233339</v>
@@ -1148,7 +1148,7 @@
         <v>10.67392820560356</v>
       </c>
       <c r="B65" t="n">
-        <v>8.657315235421104</v>
+        <v>8.657315235421107</v>
       </c>
       <c r="C65" t="n">
         <v>13.36173091707896</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12.1156042792216</v>
+        <v>12.11560427922159</v>
       </c>
       <c r="B69" t="n">
-        <v>9.816383442209581</v>
+        <v>9.816383442209585</v>
       </c>
       <c r="C69" t="n">
         <v>15.49913213298058</v>
